--- a/Other/activities_calendar.xlsx
+++ b/Other/activities_calendar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samueleceol/Library/Mobile Documents/com~apple~CloudDocs/Msc/Year 2/Semester 3/Thesis/Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA73053-8A2D-E04C-A0D8-5BC6372CC282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD42E95-0236-654C-B141-4835FED0261F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2460" windowWidth="28800" windowHeight="17500" xr2:uid="{A1C23459-83FC-154B-808E-012BA1075B6F}"/>
   </bookViews>
@@ -200,7 +200,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +231,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -355,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -363,7 +369,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -385,6 +390,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,12 +709,12 @@
   <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
@@ -719,7 +726,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -804,81 +811,80 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="Y6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="11"/>
       <c r="Y7" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="14" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="14" t="s">
+      <c r="I8" s="14"/>
+      <c r="J8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="Y8" s="13" t="s">
+      <c r="K8" s="15"/>
+      <c r="Y8" s="12" t="s">
         <v>30</v>
       </c>
     </row>
